--- a/biology/Botanique/Andira_inermis/Andira_inermis.xlsx
+++ b/biology/Botanique/Andira_inermis/Andira_inermis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Andira inermis est une espèce d'arbre tropical à fleurs, appartenant à la famille des Fabaceae[3]. Andira inermis subsp. inermis[4] aussi connue sous la dénomination botanique Geoffroea inermis W. Wright est une plante à fruits comestibles.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Andira inermis est une espèce d'arbre tropical à fleurs, appartenant à la famille des Fabaceae. Andira inermis subsp. inermis aussi connue sous la dénomination botanique Geoffroea inermis W. Wright est une plante à fruits comestibles.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Utilité</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Grâce à ses fleurs et à l'agréable parfum dégagé par celles-ci, Andira inermis sert de plante d'ornementation et de plante mellifère. Comme arbre, elle est aussi source de bois.
 </t>
@@ -542,22 +556,24 @@
           <t>Liste des variétés et sous-espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon BioLib                    (14 août 2017)[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon BioLib                    (14 août 2017) :
 sous-espèce Andira inermis subsp. glabricalyx R. T. Penn.
 sous-espèce Andira inermis subsp. grandiflora (Guill. &amp; Perr.) J. B. Gillett ex Polhill
 sous-espèce Andira inermis subsp. inermis
 sous-espèce Andira inermis subsp. rooseveltii (De Wild.) J. B. Gillett ex Polhill
-Selon Catalogue of Life                                   (14 août 2017)[5] :
+Selon Catalogue of Life                                   (14 août 2017) :
 sous-espèce Andira inermis subsp. grandiflora (Guill. &amp; Perr.)Polhill
 sous-espèce Andira inermis subsp. inermis
 sous-espèce Andira inermis subsp. rooseveltii
-Selon NCBI  (14 août 2017)[6] :
+Selon NCBI  (14 août 2017) :
 sous-espèce Andira inermis subsp. inermis
-Selon The Plant List            (14 août 2017)[1] :
+Selon The Plant List            (14 août 2017) :
 sous-espèce Andira inermis subsp. rooseveltii (De Wild.) Polhill
-Selon Tropicos                                           (14 août 2017)[7] (Attention liste brute contenant possiblement des synonymes) :
+Selon Tropicos                                           (14 août 2017) (Attention liste brute contenant possiblement des synonymes) :
 sous-espèce Andira inermis subsp. glabricalyx R.T. Penn.
 sous-espèce Andira inermis subsp. grandiflora (Guill. &amp; Perr.) J.B. Gillett ex Polhill
 sous-espèce Andira inermis subsp. inermis
